--- a/dm_setup/dm_template_20241022.xlsx
+++ b/dm_setup/dm_template_20241022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aa_non_code_repos\cassandra_default_road_model\dm_setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E15BD38-EA92-4D58-9E8B-1B60DD58D126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D52544-A42C-4875-88C4-E30DDF7838F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="669" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="35490" windowHeight="16755" tabRatio="669" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="functionSet" sheetId="9" r:id="rId1"/>
@@ -30554,7 +30554,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30587,7 +30587,7 @@
         <v>436</v>
       </c>
       <c r="C2" s="116">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D2" s="116">
         <v>1</v>
@@ -30601,7 +30601,7 @@
         <v>437</v>
       </c>
       <c r="C3" s="116">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" s="116">
         <v>-1</v>
@@ -30615,7 +30615,7 @@
         <v>1791</v>
       </c>
       <c r="C4" s="116">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="116">
         <v>1</v>
